--- a/experimentos/data/exp1/exp1_comparations.xlsx
+++ b/experimentos/data/exp1/exp1_comparations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\MACC\DISSERTAÇÃO\codigos\experimentos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\MACC\DISSERTAÇÃO\codigos\experimentos\data\exp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,32 +15,22 @@
     <sheet name="exp1_error_means_comparation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>S.I. erro</t>
   </si>
   <si>
-    <t>Utilidade erro</t>
+    <t>Ambiente Dinamico e não Deterministico</t>
   </si>
   <si>
-    <t>Qtd Sujeira erro</t>
+    <t>Ambiente Estatico</t>
   </si>
   <si>
-    <t>Utilidade estatico</t>
-  </si>
-  <si>
-    <t>Qtd Sujeira estatico</t>
-  </si>
-  <si>
-    <t>Utilidade dinamico</t>
-  </si>
-  <si>
-    <t>Qtd Sujeira dinamico</t>
+    <t>Ambiente Dinamico</t>
   </si>
 </sst>
 </file>
@@ -628,7 +618,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Sujeira</a:t>
+              <a:t>Variações de Sujeira</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
@@ -684,7 +674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira erro</c:v>
+                  <c:v>Ambiente Dinamico e não Deterministico</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -801,7 +791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira estatico</c:v>
+                  <c:v>Ambiente Estatico</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -918,7 +908,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Qtd Sujeira dinamico</c:v>
+                  <c:v>Ambiente Dinamico</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1036,17 +1026,42 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="315946408"/>
-        <c:axId val="315712520"/>
+        <c:axId val="317360208"/>
+        <c:axId val="318405544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="315946408"/>
+        <c:axId val="317360208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Sujeira inicial %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1114,7 +1129,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315712520"/>
+        <c:crossAx val="318405544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1122,7 +1137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="315712520"/>
+        <c:axId val="318405544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,6 +1158,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Qtd. Sujeira</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1204,7 +1244,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315946408"/>
+        <c:crossAx val="317360208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,7 +1416,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade erro</c:v>
+                  <c:v>Ambiente Dinamico e não Deterministico</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1493,7 +1533,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade estatico</c:v>
+                  <c:v>Ambiente Estatico</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1610,7 +1650,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Utilidade dinamico</c:v>
+                  <c:v>Ambiente Dinamico</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1728,11 +1768,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="352367608"/>
-        <c:axId val="352368000"/>
+        <c:axId val="318407504"/>
+        <c:axId val="318404368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352367608"/>
+        <c:axId val="318407504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1759,7 +1799,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>% inicial de sujeira</a:t>
+                  <a:t>Sujeira inicial %</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1831,7 +1871,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352368000"/>
+        <c:crossAx val="318404368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1839,7 +1879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352368000"/>
+        <c:axId val="318404368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1946,7 +1986,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352367608"/>
+        <c:crossAx val="318407504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3441,7 +3481,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,19 +3503,19 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
